--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/126.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/126.xlsx
@@ -479,13 +479,13 @@
         <v>-13.93280603983048</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.52485511270471</v>
+        <v>-21.46501366865367</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01766900552096611</v>
+        <v>-0.04493499681775078</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.833056843282776</v>
+        <v>-8.843108641401153</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-13.6225843834169</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.6754805252675</v>
+        <v>-21.61569286029199</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1429791405268631</v>
+        <v>-0.1699029013429638</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.31110158116407</v>
+        <v>-8.343589031794719</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-13.23223303490738</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.92152957385872</v>
+        <v>-21.85581643256052</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2806095728373859</v>
+        <v>-0.3107454111650496</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.187546599623396</v>
+        <v>-8.23260857591575</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.78992961438982</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.00016436030618</v>
+        <v>-21.95493615778035</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2904706996879533</v>
+        <v>-0.3298516500009532</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.72896264451364</v>
+        <v>-7.775447321804267</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.2969632861912</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.97244369137077</v>
+        <v>-21.93963845529377</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4281695780946128</v>
+        <v>-0.4684696616985927</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.979629451028453</v>
+        <v>-7.051048063340347</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-11.75647847188243</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.22403687374909</v>
+        <v>-22.19147119900856</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5228403070655538</v>
+        <v>-0.5647635409493496</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.393765091145434</v>
+        <v>-6.47375413249503</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-11.18286707115249</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.60481228457189</v>
+        <v>-22.57702805854721</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6919852776402103</v>
+        <v>-0.7392668630501448</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.989062880715949</v>
+        <v>-6.066739421817493</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-10.58980903575916</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.84477940862068</v>
+        <v>-22.83253733542592</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8221404184512201</v>
+        <v>-0.8565883608355028</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.71230109098676</v>
+        <v>-5.786164206732111</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.979157648785733</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.31673968651831</v>
+        <v>-23.31144978108831</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9137897411784077</v>
+        <v>-0.9459936294107765</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.446740015989674</v>
+        <v>-5.49871015898498</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.372351686510747</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.76412781590283</v>
+        <v>-23.75786010909945</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.154201764852083</v>
+        <v>-1.189031049771985</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.12325398763338</v>
+        <v>-5.162532268802174</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.784439547022981</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23958862271718</v>
+        <v>-24.23496851122794</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.09314784709805</v>
+        <v>-1.125302845261749</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.956445962341109</v>
+        <v>-4.986542688613837</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.222368184525736</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.85611683366949</v>
+        <v>-24.85033802755279</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.025640440279688</v>
+        <v>-1.050794380609965</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.850755411892141</v>
+        <v>-4.885095796125352</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-7.708119797176611</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.4366472870607</v>
+        <v>-25.4378744277843</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9162831346805344</v>
+        <v>-0.9558547562613439</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.731380531222679</v>
+        <v>-4.75995188735293</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-7.251212400883088</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.08203530554841</v>
+        <v>-26.07956635708062</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8970791157072924</v>
+        <v>-0.9183951856470416</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.693862292525973</v>
+        <v>-4.742204792426029</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-6.848025445401893</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.82963779060271</v>
+        <v>-26.83950869546701</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8179505395662739</v>
+        <v>-0.8346122749687201</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.599602240131853</v>
+        <v>-4.654794238652456</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-6.503441874035687</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.64145738085394</v>
+        <v>-27.63518967405055</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7208744192168107</v>
+        <v>-0.7324026974089962</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.628818945168537</v>
+        <v>-4.677606344693482</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.210354612802846</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.47211187005995</v>
+        <v>-28.48150609675473</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.574507331635111</v>
+        <v>-0.5813226072075904</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.824198326591059</v>
+        <v>-4.893382662764773</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.95435683858663</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.16970225936915</v>
+        <v>-29.17102473572665</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.2961126136123732</v>
+        <v>-0.3038959125445018</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.052876733784139</v>
+        <v>-5.124231789006762</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.732638625656789</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.60008153386367</v>
+        <v>-29.59169933159034</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.115972266594025</v>
+        <v>-0.1198590270532224</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.362091751095909</v>
+        <v>-5.441083435044654</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.537856404578604</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.21466392008294</v>
+        <v>-30.19106468393635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.33072651282226</v>
+        <v>0.3204449313811379</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.636961495167601</v>
+        <v>-5.720768850880257</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-5.360930326531235</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.74230509718787</v>
+        <v>-30.72834942708626</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3513581218006411</v>
+        <v>0.3405876396728275</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.911929019376632</v>
+        <v>-5.997550196636912</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-5.204646514912195</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.10298424528422</v>
+        <v>-31.08292953911614</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6233824638757888</v>
+        <v>0.6219304288363151</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.214607434507336</v>
+        <v>-6.296385852370222</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.072186692884203</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.32205819848725</v>
+        <v>-31.28851472237335</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8428695381590685</v>
+        <v>0.8285398590321408</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.431420222034413</v>
+        <v>-6.516596499669805</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.965799726807453</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.60443990160996</v>
+        <v>-31.58384984918995</v>
       </c>
       <c r="F25" t="n">
-        <v>1.063153520561655</v>
+        <v>1.051806135623546</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.464895252052179</v>
+        <v>-6.540596634379491</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.894470782638305</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.49528793429921</v>
+        <v>-31.48891022484132</v>
       </c>
       <c r="F26" t="n">
-        <v>1.101483334398268</v>
+        <v>1.082435763644768</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.58245142216715</v>
+        <v>-6.671695353515815</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.866294712744009</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.57923462670758</v>
+        <v>-31.57554098201962</v>
       </c>
       <c r="F27" t="n">
-        <v>1.345518112160328</v>
+        <v>1.334332064448827</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.879214138988887</v>
+        <v>-6.947396228754883</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.88420419549336</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.40878918030632</v>
+        <v>-31.40090810123685</v>
       </c>
       <c r="F28" t="n">
-        <v>1.491298518917998</v>
+        <v>1.48012224922023</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.013031145943216</v>
+        <v>-7.090287232454206</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.953354149431019</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.22249357364253</v>
+        <v>-31.20648207615338</v>
       </c>
       <c r="F29" t="n">
-        <v>1.516428014213941</v>
+        <v>1.508561602165075</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.28886402436769</v>
+        <v>-7.368012156536176</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.079049551606637</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.07184860505228</v>
+        <v>-31.07225439262223</v>
       </c>
       <c r="F30" t="n">
-        <v>1.624142613505811</v>
+        <v>1.617904240743627</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.317997616287636</v>
+        <v>-7.385060123481109</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.259830829345358</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.80097317959086</v>
+        <v>-30.80560306909382</v>
       </c>
       <c r="F31" t="n">
-        <v>1.570373315983481</v>
+        <v>1.556209863090028</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.311568572257643</v>
+        <v>-7.376079017866586</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.494514238023043</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.40620543111494</v>
+        <v>-30.40224533555274</v>
       </c>
       <c r="F32" t="n">
-        <v>1.521747253685144</v>
+        <v>1.508718050384816</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.341474627262562</v>
+        <v>-7.391772729909383</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.78262681308414</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.89273259591033</v>
+        <v>-29.8993278661738</v>
       </c>
       <c r="F33" t="n">
-        <v>1.496182636778046</v>
+        <v>1.480034247096626</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.604253857352374</v>
+        <v>-7.654151061436107</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.115304527148901</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.28609973485666</v>
+        <v>-29.30052719412092</v>
       </c>
       <c r="F34" t="n">
-        <v>1.493659909234718</v>
+        <v>1.469826000758508</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.585118284475269</v>
+        <v>-7.638760467819059</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.483202416141371</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.84313860119013</v>
+        <v>-28.85109545986603</v>
       </c>
       <c r="F35" t="n">
-        <v>1.515939113527249</v>
+        <v>1.497214217226965</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.605471220062236</v>
+        <v>-7.655148418836959</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.879813636860703</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.21588879817867</v>
+        <v>-28.22696239873224</v>
       </c>
       <c r="F36" t="n">
-        <v>1.414516666073099</v>
+        <v>1.404953768641413</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.506239047684462</v>
+        <v>-7.531109425616459</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.291962823407498</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.54983005865765</v>
+        <v>-27.56502998100689</v>
       </c>
       <c r="F37" t="n">
-        <v>1.533114194650722</v>
+        <v>1.510800767310122</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.436947153359677</v>
+        <v>-7.457050749596432</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.70878601070573</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.02702166484066</v>
+        <v>-27.02555251827716</v>
       </c>
       <c r="F38" t="n">
-        <v>1.396476230734183</v>
+        <v>1.376289521380691</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.401824528027761</v>
+        <v>-7.429628310079906</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.125017597275408</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.28546199227387</v>
+        <v>-26.27404616123963</v>
       </c>
       <c r="F39" t="n">
-        <v>1.448817938251374</v>
+        <v>1.430019706848086</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.389382005551462</v>
+        <v>-7.392985203612378</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.529013471121031</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.6237984699262</v>
+        <v>-25.61146350560098</v>
       </c>
       <c r="F40" t="n">
-        <v>1.490878064327443</v>
+        <v>1.452748699772374</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.095552692849873</v>
+        <v>-7.097591408713376</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.912385450131096</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.08094270345144</v>
+        <v>-25.05954840940182</v>
       </c>
       <c r="F41" t="n">
-        <v>1.507642468874095</v>
+        <v>1.484268127043374</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.126636998509719</v>
+        <v>-7.117768340053135</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.272654251779372</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.36578855697285</v>
+        <v>-24.35126820657812</v>
       </c>
       <c r="F42" t="n">
-        <v>1.519473865492029</v>
+        <v>1.493694132282786</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.847367148257803</v>
+        <v>-6.851605917211418</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.602215273047934</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.66146356070448</v>
+        <v>-23.6466987599664</v>
       </c>
       <c r="F43" t="n">
-        <v>1.471146032612575</v>
+        <v>1.446080094405902</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.850466778611427</v>
+        <v>-6.839534959257005</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.898850939985483</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.97236293181969</v>
+        <v>-22.962653364182</v>
       </c>
       <c r="F44" t="n">
-        <v>1.584487878808264</v>
+        <v>1.558566364399881</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.744468220729844</v>
+        <v>-6.750217692805336</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.16578740172799</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.16136958372897</v>
+        <v>-22.14392560722782</v>
       </c>
       <c r="F45" t="n">
-        <v>1.631705907128928</v>
+        <v>1.610243166983172</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.643216888516036</v>
+        <v>-6.628647648052629</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.40088472139903</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.65571427050456</v>
+        <v>-21.63200747620689</v>
       </c>
       <c r="F46" t="n">
-        <v>1.635441108375251</v>
+        <v>1.608321787284474</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.498751624605566</v>
+        <v>-6.501807253897387</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.60701657459574</v>
       </c>
       <c r="E47" t="n">
-        <v>-20.98986086927194</v>
+        <v>-20.96359223537601</v>
       </c>
       <c r="F47" t="n">
-        <v>1.710902929366084</v>
+        <v>1.681089765491636</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.471583413446119</v>
+        <v>-6.475602177090724</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.78923642906572</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.35216325858589</v>
+        <v>-20.32453059177409</v>
       </c>
       <c r="F48" t="n">
-        <v>1.74528242565423</v>
+        <v>1.718466222989201</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.435302093486744</v>
+        <v>-6.453758094409348</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.9459994805291</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.60973334279679</v>
+        <v>-19.57685477161679</v>
       </c>
       <c r="F49" t="n">
-        <v>1.898347452643603</v>
+        <v>1.871105906381153</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.1692765628373</v>
+        <v>-6.206863247630142</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-11.08048933018816</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.2254085129886</v>
+        <v>-19.18899030083696</v>
       </c>
       <c r="F50" t="n">
-        <v>1.913014473244348</v>
+        <v>1.888364100621363</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.158931424306909</v>
+        <v>-6.19972040859758</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-11.19556138431365</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.63710453867899</v>
+        <v>-18.60216769560802</v>
       </c>
       <c r="F51" t="n">
-        <v>1.878238967399982</v>
+        <v>1.849814281475738</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.193755820219944</v>
+        <v>-6.240572949977521</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.28814368010856</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.1016556176076</v>
+        <v>-18.08279382911504</v>
       </c>
       <c r="F52" t="n">
-        <v>1.903554244956867</v>
+        <v>1.865454214442999</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.215458121702179</v>
+        <v>-6.266191345960156</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.36071757056421</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.71832814520027</v>
+        <v>-17.68689183104601</v>
       </c>
       <c r="F53" t="n">
-        <v>1.999104995163853</v>
+        <v>1.960863183450844</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.106922169256667</v>
+        <v>-6.172488640348863</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.41486390774715</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.09923320564283</v>
+        <v>-17.06533283202764</v>
       </c>
       <c r="F54" t="n">
-        <v>2.056863722289586</v>
+        <v>2.01945793075082</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.099461544777755</v>
+        <v>-6.158422967592749</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.44848343705476</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.84571375455895</v>
+        <v>-16.81721084452484</v>
       </c>
       <c r="F55" t="n">
-        <v>2.00278641733464</v>
+        <v>1.978409829096202</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.331366696502998</v>
+        <v>-6.394048653543715</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.46622006181776</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.31299778832617</v>
+        <v>-16.26773536275227</v>
       </c>
       <c r="F56" t="n">
-        <v>2.038808619930069</v>
+        <v>2.005152696658227</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.19846882283965</v>
+        <v>-6.265756224348999</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-11.47078437855262</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.21298826385656</v>
+        <v>-16.17023878781225</v>
       </c>
       <c r="F57" t="n">
-        <v>2.076713090169261</v>
+        <v>2.048327516299953</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.347827982623901</v>
+        <v>-6.424174713857645</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.46210548736757</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.94880099978907</v>
+        <v>-15.91600554172581</v>
       </c>
       <c r="F58" t="n">
-        <v>1.946626395454388</v>
+        <v>1.916040768494968</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.516645389738474</v>
+        <v>-6.584602585188592</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.44645571910887</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.6710027406041</v>
+        <v>-15.64607858359657</v>
       </c>
       <c r="F59" t="n">
-        <v>2.009230128385234</v>
+        <v>1.979866753142543</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.315149860725442</v>
+        <v>-6.373309486414262</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.42596925482443</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.40227847816412</v>
+        <v>-15.39106798541828</v>
       </c>
       <c r="F60" t="n">
-        <v>2.073193005225082</v>
+        <v>2.05286451467245</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.342469631097762</v>
+        <v>-6.417178545031089</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.40008214055774</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.25430779633007</v>
+        <v>-15.24008567535422</v>
       </c>
       <c r="F61" t="n">
-        <v>2.0079052075243</v>
+        <v>1.988378514097842</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.183440015730753</v>
+        <v>-6.261781461766198</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.37360082014828</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.20320300755021</v>
+        <v>-15.18409187970744</v>
       </c>
       <c r="F62" t="n">
-        <v>2.037483699069135</v>
+        <v>2.005035360493421</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.266587355516376</v>
+        <v>-6.348771560949216</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.34516487302911</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.09979562330809</v>
+        <v>-15.09398259414333</v>
       </c>
       <c r="F63" t="n">
-        <v>2.000522807155258</v>
+        <v>1.973012365515128</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.329264423550225</v>
+        <v>-6.408901456405403</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.31119214945866</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.16064909178058</v>
+        <v>-15.14156729797901</v>
       </c>
       <c r="F64" t="n">
-        <v>1.851559656927227</v>
+        <v>1.821712270004711</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.314470288770941</v>
+        <v>-6.396952723622663</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.27402068629204</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.15303201908193</v>
+        <v>-15.15196621558494</v>
       </c>
       <c r="F65" t="n">
-        <v>1.857993589964087</v>
+        <v>1.822162058636467</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.404706688513589</v>
+        <v>-6.495735107368679</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.23013904295058</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.15092974612915</v>
+        <v>-15.15085152201928</v>
       </c>
       <c r="F66" t="n">
-        <v>1.912550017591991</v>
+        <v>1.881856832481499</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.316171663160627</v>
+        <v>-6.423465807861942</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.17627060825274</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.00903609983068</v>
+        <v>-15.01208195110877</v>
       </c>
       <c r="F67" t="n">
-        <v>1.720192042413222</v>
+        <v>1.695111437185948</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.112832978558767</v>
+        <v>-6.21225582220435</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.11460801848217</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.11627646545646</v>
+        <v>-15.12147836876286</v>
       </c>
       <c r="F68" t="n">
-        <v>1.684922746875298</v>
+        <v>1.663264446454864</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.234500803448813</v>
+        <v>-6.337634403306383</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.04013390327141</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.01692206790702</v>
+        <v>-15.0277267730829</v>
       </c>
       <c r="F69" t="n">
-        <v>1.683773830261573</v>
+        <v>1.649232996746818</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.993922553541662</v>
+        <v>-6.127289771864235</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.94816990762498</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.04975174901835</v>
+        <v>-15.06042934001569</v>
       </c>
       <c r="F70" t="n">
-        <v>1.555686739355268</v>
+        <v>1.534536895648994</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.973457170796756</v>
+        <v>-6.099559324915093</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.83869547589262</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.06782640740533</v>
+        <v>-15.07177183594693</v>
       </c>
       <c r="F71" t="n">
-        <v>1.461289794768874</v>
+        <v>1.433168227270379</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.930981479136999</v>
+        <v>-6.082731363279172</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.70471326407652</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.17973577458902</v>
+        <v>-15.18451722330486</v>
       </c>
       <c r="F72" t="n">
-        <v>1.379320705638178</v>
+        <v>1.353936981985156</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.787308234338969</v>
+        <v>-5.938735444027926</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.54272166955794</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.3028165224636</v>
+        <v>-15.29869508967479</v>
       </c>
       <c r="F73" t="n">
-        <v>1.300949925561532</v>
+        <v>1.279071619832087</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.942392421164378</v>
+        <v>-6.084056284140106</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.35459409622812</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.44852359411827</v>
+        <v>-15.43744510455784</v>
       </c>
       <c r="F74" t="n">
-        <v>1.190712598726333</v>
+        <v>1.160283419986655</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.844172273208057</v>
+        <v>-5.986139254609533</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.13560317283952</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.67226899338263</v>
+        <v>-15.67209298913542</v>
       </c>
       <c r="F75" t="n">
-        <v>1.098618376374256</v>
+        <v>1.084591815673077</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.869218655387263</v>
+        <v>-6.018289363766366</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.886574582516072</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.69462642178503</v>
+        <v>-15.69036809680395</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9189864860700673</v>
+        <v>0.9003984819620566</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.973344723638817</v>
+        <v>-6.12561773151575</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.612548688665369</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.77390655713893</v>
+        <v>-15.76466633416046</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7601035409090653</v>
+        <v>0.7421462186868867</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.88610039609872</v>
+        <v>-6.041678372617687</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.311480296381289</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.92798360854975</v>
+        <v>-15.92093366064766</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7780119730625747</v>
+        <v>0.756446563772613</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.865708348456818</v>
+        <v>-6.016284870950931</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.987480616332558</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.03381105119099</v>
+        <v>-16.0320363416983</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4975687611625995</v>
+        <v>0.4792692084597369</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.883127879923635</v>
+        <v>-6.030658551139661</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.646535295756197</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.53842011694588</v>
+        <v>-16.53044125773908</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4832097479944703</v>
+        <v>0.4681613848581061</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.826048724752403</v>
+        <v>-5.965312085356476</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.286479449487345</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.0539463350346</v>
+        <v>-17.03927442542699</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3146661252644444</v>
+        <v>0.2925971482671903</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.891649418892668</v>
+        <v>-6.040319228708685</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.912308348313448</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.47603385388283</v>
+        <v>-17.46509225651468</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.0009534910429839058</v>
+        <v>-0.02010861994755667</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.926992049533596</v>
+        <v>-6.077813022371055</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.53058581978375</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.98535103325056</v>
+        <v>-17.97543612732446</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.008433671549363777</v>
+        <v>-0.0267234462384926</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.951510418971175</v>
+        <v>-6.101539372696194</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.141237838295025</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.78139379834226</v>
+        <v>-18.75480248999311</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.09464641864054198</v>
+        <v>-0.1166371715279254</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.947623658511977</v>
+        <v>-6.09371696170913</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-6.75249746273317</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.45165219476196</v>
+        <v>-19.44205018527534</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2670132447404954</v>
+        <v>-0.2817584894511109</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.038417405037455</v>
+        <v>-6.181063958393432</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-6.373634725433168</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.1370078443867</v>
+        <v>-20.11709491941776</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.3853027658855026</v>
+        <v>-0.4140305702354948</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.265814892431403</v>
+        <v>-6.416107852527236</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-6.007868956375941</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.87567811389514</v>
+        <v>-20.86662856218448</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4893457210203196</v>
+        <v>-0.5081879534854098</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.606911123522325</v>
+        <v>-6.745802919604512</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.665818636135728</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.7057874788355</v>
+        <v>-21.69825840826045</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6056063043155571</v>
+        <v>-0.6234071783179943</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.853649522081788</v>
+        <v>-6.996198295300427</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.358977803238592</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.70049503796428</v>
+        <v>-22.69710695620551</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8328571215034977</v>
+        <v>-0.8511860082475617</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.893450926985343</v>
+        <v>-7.05170807926738</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.09238655059899</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.77967974674649</v>
+        <v>-23.78492565111469</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.102515184255058</v>
+        <v>-1.115334160260109</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.290399172523902</v>
+        <v>-7.434707988214631</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.87504071863337</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.01775228969656</v>
+        <v>-25.01959544528539</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.074276280591758</v>
+        <v>-1.071303764416673</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.645521964316003</v>
+        <v>-7.793091747586963</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.715258602485583</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.25118027612307</v>
+        <v>-26.27577686967052</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.301981775418321</v>
+        <v>-1.298143905027793</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.970039573121216</v>
+        <v>-8.104624154153651</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-4.612634268681393</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.54283877883796</v>
+        <v>-27.56261481161463</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.563612088894408</v>
+        <v>-1.561900936490988</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.308378404339198</v>
+        <v>-8.428374188880758</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.567529268568729</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.03477544785603</v>
+        <v>-29.05987316460734</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.849320761190051</v>
+        <v>-1.830840315233112</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.640689090090275</v>
+        <v>-8.759022612297084</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.579198985649891</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.63586652868827</v>
+        <v>-30.67125804939787</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.122738470222269</v>
+        <v>-2.097418303658517</v>
       </c>
       <c r="G95" t="n">
-        <v>-8.959119885346178</v>
+        <v>-9.073121747468901</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.638822487815686</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.45952475812994</v>
+        <v>-32.50608277052358</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.172885013656216</v>
+        <v>-2.133587176459953</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.328958587807694</v>
+        <v>-9.436326067612013</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.735482344819702</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.16317986951977</v>
+        <v>-34.2262505026064</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.534617742732386</v>
+        <v>-2.489922441955049</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.749031835826759</v>
+        <v>-9.835044133636394</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-4.86217883780213</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.15000136963443</v>
+        <v>-36.21471226452492</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.923543128002337</v>
+        <v>-2.879209613733152</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.20518595452366</v>
+        <v>-10.30181228624136</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-4.997823001183531</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.20486073381252</v>
+        <v>-38.26833715446911</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.189637104747917</v>
+        <v>-3.146271613838381</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.57784561394738</v>
+        <v>-10.66247432281368</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-5.134467018463821</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.40790834063023</v>
+        <v>-40.4748461781486</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.556205061615466</v>
+        <v>-3.509803497441576</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.72453048697543</v>
+        <v>-10.81986123187341</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-5.249160854784008</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.31184406282665</v>
+        <v>-42.38263932676301</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.002820727915013</v>
+        <v>-3.956204047438979</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.01266410667706</v>
+        <v>-11.10271961316564</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-5.344079138812861</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.52558881666917</v>
+        <v>-44.60991685161316</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.229406640169054</v>
+        <v>-4.182975741953962</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.15896274816263</v>
+        <v>-11.23620905665988</v>
       </c>
     </row>
   </sheetData>
